--- a/results/tests_results/df_tests_results_2000.xlsx
+++ b/results/tests_results/df_tests_results_2000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -512,112 +512,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9036144578313253</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BBVA.MC</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9036144578313253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BBVA.MC</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.963855421686747</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BBVA.MC</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9518072289156626</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
   </sheetData>

--- a/results/tests_results/df_tests_results_2000.xlsx
+++ b/results/tests_results/df_tests_results_2000.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>^GSPC</t>
+          <t>BBVA.MC</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,11 +496,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>2024-05-24</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
